--- a/Training/BiLSTM_BTC_result3.xlsx
+++ b/Training/BiLSTM_BTC_result3.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>1258.189244705009</v>
+        <v>1432.220455874153</v>
       </c>
       <c r="F1" t="n">
-        <v>1126.736849851403</v>
+        <v>1354.808609225619</v>
       </c>
       <c r="G1" t="n">
-        <v>5.467966317780372</v>
+        <v>6.662500656845187</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>751.2877421770037</v>
+        <v>1092.693142123811</v>
       </c>
       <c r="F2" t="n">
-        <v>587.3317437334873</v>
+        <v>992.0816891655707</v>
       </c>
       <c r="G2" t="n">
-        <v>2.756096736633138</v>
+        <v>4.820045141509907</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>583.9557513663866</v>
+        <v>578.4540819340606</v>
       </c>
       <c r="F3" t="n">
-        <v>422.2928721106508</v>
+        <v>429.1403836340813</v>
       </c>
       <c r="G3" t="n">
-        <v>1.968776553842363</v>
+        <v>1.985420352445114</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>699.1418229125792</v>
+        <v>716.4548805811596</v>
       </c>
       <c r="F4" t="n">
-        <v>510.2127034552109</v>
+        <v>515.9982840956616</v>
       </c>
       <c r="G4" t="n">
-        <v>2.443195198147303</v>
+        <v>2.496859972868583</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>684.8522537370883</v>
+        <v>839.4037969001899</v>
       </c>
       <c r="F5" t="n">
-        <v>533.7959625210128</v>
+        <v>663.8148070775559</v>
       </c>
       <c r="G5" t="n">
-        <v>2.503288490686922</v>
+        <v>3.339570024487245</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>909.0291535925511</v>
+        <v>1040.938058432879</v>
       </c>
       <c r="F6" t="n">
-        <v>764.4373508645544</v>
+        <v>954.9824015221683</v>
       </c>
       <c r="G6" t="n">
-        <v>3.669805916374992</v>
+        <v>4.694909902208498</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>670.2153663452908</v>
+        <v>699.2036705099464</v>
       </c>
       <c r="F7" t="n">
-        <v>536.6978675027027</v>
+        <v>537.1007044021862</v>
       </c>
       <c r="G7" t="n">
-        <v>2.566966355579325</v>
+        <v>2.65463862057649</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>483.7904366699545</v>
+        <v>536.0005143079031</v>
       </c>
       <c r="F8" t="n">
-        <v>376.5808511647459</v>
+        <v>400.8429274468236</v>
       </c>
       <c r="G8" t="n">
-        <v>1.863743234009417</v>
+        <v>1.91661980661589</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>766.4110656405072</v>
+        <v>753.2475917538695</v>
       </c>
       <c r="F9" t="n">
-        <v>646.4473106838379</v>
+        <v>595.0274736272098</v>
       </c>
       <c r="G9" t="n">
-        <v>3.099186871665002</v>
+        <v>2.961325607106315</v>
       </c>
     </row>
   </sheetData>
